--- a/data_year/zb/建筑业/建筑业企业资产.xlsx
+++ b/data_year/zb/建筑业/建筑业企业资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,344 +458,190 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2969.77724</v>
+        <v>9776.2623</v>
       </c>
       <c r="C2" t="n">
-        <v>228.15824</v>
+        <v>1494.042</v>
       </c>
       <c r="D2" t="n">
-        <v>10587.51908</v>
+        <v>57945.2469</v>
       </c>
       <c r="E2" t="n">
-        <v>14578.36857</v>
+        <v>75221.766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3571.63157</v>
-      </c>
-      <c r="C3" t="n">
-        <v>386.95071</v>
-      </c>
+        <v>10527.52869</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>12140.58905</v>
+        <v>71995.02972999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16967.61427</v>
+        <v>93859.85583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4518.3333</v>
-      </c>
-      <c r="C4" t="n">
-        <v>521.9417</v>
-      </c>
+        <v>11785.21779</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>14315.3123</v>
+        <v>86959.28512</v>
       </c>
       <c r="E4" t="n">
-        <v>20390.1075</v>
+        <v>111692.15194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5144.7123</v>
-      </c>
-      <c r="C5" t="n">
-        <v>583.2396</v>
-      </c>
+        <v>13621.944</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>16603.4099</v>
+        <v>117374.55642</v>
       </c>
       <c r="E5" t="n">
-        <v>23541.9044</v>
+        <v>148372.78725</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5787.67305</v>
-      </c>
-      <c r="C6" t="n">
-        <v>650.8956899999999</v>
-      </c>
+        <v>14436.58826</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>22826.80683</v>
+        <v>130592.85015</v>
       </c>
       <c r="E6" t="n">
-        <v>31485.73082</v>
+        <v>164226.33632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6306.24664</v>
-      </c>
-      <c r="C7" t="n">
-        <v>736.0409100000001</v>
-      </c>
+        <v>13650.23938</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>26598.48714</v>
+        <v>144471.3557</v>
       </c>
       <c r="E7" t="n">
-        <v>36008.7811</v>
+        <v>182482.06575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6916.70624</v>
-      </c>
-      <c r="C8" t="n">
-        <v>958.35631</v>
-      </c>
+        <v>14278.01011</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>32010.31111</v>
+        <v>161978.21585</v>
       </c>
       <c r="E8" t="n">
-        <v>43029.27362</v>
+        <v>204664.12805</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7779.31443</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1146.67722</v>
-      </c>
+        <v>21627.59915</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>38943.77465</v>
+        <v>182666.17237</v>
       </c>
       <c r="E9" t="n">
-        <v>51711.92963</v>
+        <v>234002.45864</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8918.35844</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1292.49674</v>
-      </c>
+        <v>20799.79676</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>47478.99851</v>
+        <v>200772.66023</v>
       </c>
       <c r="E10" t="n">
-        <v>62164.38775</v>
+        <v>256629.50334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9776.2623</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1494.042</v>
-      </c>
+        <v>21171.09386</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>57945.2469</v>
+        <v>221695.78803</v>
       </c>
       <c r="E11" t="n">
-        <v>75221.766</v>
+        <v>283032.55357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10527.52869</v>
+        <v>21941.75889</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>71995.02972999999</v>
+        <v>244435.0548</v>
       </c>
       <c r="E12" t="n">
-        <v>93859.85583</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11785.21779</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>86959.28512</v>
-      </c>
-      <c r="E13" t="n">
-        <v>111692.15194</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13621.944</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>117374.55642</v>
-      </c>
-      <c r="E14" t="n">
-        <v>148372.78725</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14436.58826</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>130592.85015</v>
-      </c>
-      <c r="E15" t="n">
-        <v>164226.33632</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>13650.23938</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>144471.3557</v>
-      </c>
-      <c r="E16" t="n">
-        <v>182482.06575</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14278.01011</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>161978.21585</v>
-      </c>
-      <c r="E17" t="n">
-        <v>204664.12805</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21627.59915</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>182666.17237</v>
-      </c>
-      <c r="E18" t="n">
-        <v>234002.45864</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>20799.79676</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>200772.66023</v>
-      </c>
-      <c r="E19" t="n">
-        <v>256629.50334</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>21171.09386</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>221695.78803</v>
-      </c>
-      <c r="E20" t="n">
-        <v>283032.55357</v>
+        <v>311295.76322</v>
       </c>
     </row>
   </sheetData>
